--- a/pagegen/data.xlsx
+++ b/pagegen/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E1548E-7768-4769-89CA-EAEB6501671C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="topics" sheetId="2" r:id="rId1"/>
-    <sheet name="papers" sheetId="1" r:id="rId2"/>
+    <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,51 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>Underwater Vehicles</t>
-  </si>
-  <si>
-    <t>Space Exploration</t>
-  </si>
-  <si>
-    <t>Robtics</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Decision Support</t>
-  </si>
-  <si>
-    <t>Smart Cities</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -382,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -394,80 +370,6 @@
     <col min="2" max="2" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.19921875" customWidth="1"/>
-    <col min="2" max="2" width="18.06640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" customWidth="1"/>
-    <col min="4" max="4" width="36.19921875" customWidth="1"/>
-    <col min="5" max="5" width="27.06640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
@@ -488,47 +390,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/data.xlsx
+++ b/pagegen/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E1548E-7768-4769-89CA-EAEB6501671C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3EC5E8-B3F0-46F6-A31E-67F67EA1CA99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Title</t>
   </si>
@@ -37,20 +37,238 @@
     <t>Award</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Space Mission Planning</t>
+  </si>
+  <si>
+    <t>The Robot Bartender</t>
+  </si>
+  <si>
+    <t>Width Based Planning</t>
+  </si>
+  <si>
+    <t>Planning.Domains</t>
+  </si>
+  <si>
+    <t>Scenario Planning</t>
+  </si>
+  <si>
+    <t>Multi-Agent Path Finding</t>
+  </si>
+  <si>
+    <t>Crowdsourced Tour Planning</t>
+  </si>
+  <si>
+    <t>Risk-Aware Motion Planning</t>
+  </si>
+  <si>
+    <t>Collaborative Environments</t>
+  </si>
+  <si>
+    <t>An Innovative Product for Space Mission Planning</t>
+  </si>
+  <si>
+    <t>Amedeo Cesta, Gabriella Cortellessa, Simone Fratini, Angelo Oddi and Nicola Policella</t>
+  </si>
+  <si>
+    <t>Best Paper in Applications Track (ICAPS 2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEXAR2 is an advanced AI software tool for continuous support of the mission planning operations of MARS-EXPRESS. It is responsible for the generation of the activity plan used to download the satellite data from the on board memory to ground. The problem is solved on a weekly basis at ESOC, the Mission Operations Centre of the European Space Agency (ESA). The tool is still in use and supports the daily work of mission planners within the MARS-EXPRESS mission. </t>
+  </si>
+  <si>
+    <t>Planning for Social Interaction in a Robot Bartender Domain</t>
+  </si>
+  <si>
+    <t>http://www.aaai.org/Papers/ICAPS/2007/ICAPS07-008.pdf</t>
+  </si>
+  <si>
+    <t>https://www.aaai.org/ocs/index.php/ICAPS/ICAPS13/paper/view/6039/6208</t>
+  </si>
+  <si>
+    <t>A robot coexisting with humans must not only perform physical tasks, but must  also interact with humans in a socially-appropriate manner, using signals such as gaze, facial expressions, and language. In this paper, we describe an application of planning to task-based social interaction, using a robot that interacts with multiple humans in a simple bartending domain. We show how social states are inferred from low-level sensor data, and how we use the knowledge-level PKS planner ito construct plans that include task, dialogue, and social actions, as an alternative to mainstream methods of interaction management. The resulting system was evaluated in areal-world study with human subjects.</t>
+  </si>
+  <si>
+    <t>Petrick, R. P. A.; and Foster, M. E.</t>
+  </si>
+  <si>
+    <t>Width-based Planning</t>
+  </si>
+  <si>
+    <t>Nir Lipovetzky</t>
+  </si>
+  <si>
+    <t>Width-based Planning searches for solutions through a general measure of state novelty. When the dynamics of the problem are given through simulator engines such as the Atari games (ALE), GVGAI, or complex robotic and UaV flight simulators, novelty exploration yields state-of-the-art performance compared to known alternatives such as MCTS. Novelty exploration can be combined as well with the exploitation of goal-based heuristics within a general Best First Width Search. BFWS can solve efficiently classical planning problems even when the action model is hidden, opening exciting opportunities to model beyond declarative action representations.</t>
+  </si>
+  <si>
+    <t>ICAPS Best Dissertation Award 2013</t>
+  </si>
+  <si>
+    <t>https://nirlipo.github.io/Width-Based-Planning-Resources/,https://people.eng.unimelb.edu.au/nlipovetzky/papers/aiaccess_nirlipo.pdf</t>
+  </si>
+  <si>
+    <t>http://planning.domains/,http://editor.planning.domains/</t>
+  </si>
+  <si>
+    <t>Christian Muise</t>
+  </si>
+  <si>
+    <t>Best Systems Demonstration Award (ICAPS 2016)</t>
+  </si>
+  <si>
+    <t>Commonly used resources for the field of automated planning, such as benchmarks, problem generators, etc., are widespread over the internet. With planning.domains, we aim to (a) collect these resources in a central location; and (b) enable creative possibilities through a consistent interface to the larger planning community. In this demo, we focus on the three main pillars of planning.domains: (1) api.planning.domains – a programmatic interface to all existing planning problems; (2) solver.planning.domains – an open (and extendable) interface to planning-in-the-cloud; and (3) editor.planning.domains - a fully featured editor for planning domains.</t>
+  </si>
+  <si>
+    <t>Scenario Planning for Enterprise Risk Management</t>
+  </si>
+  <si>
+    <t>Shirin Sohrabi, Michael Katz, Michael Perrone, Mark D. Feblowitz, Octavian Udrea, Oktie Hassanzadeh, Deepak Turaga</t>
+  </si>
+  <si>
+    <t>Preparing for the future is fundamental to the success of most human endeavors, from playing chess to running a multinational organization. The IBM Research Scenario Planning Advisor is a decision support system that allows domain experts to generate diverse alternate scenarios of the future and enhance their ability to imagine the different possible outcomes, including unlikely but potentially impactful futures. The system includes tooling for experts to intuitively encode their domain knowledge, and uses AI Planning to reason about this knowledge and the current state of the world, including news and social media, when generating scenarios. We believe that AI planning provides a very natural formulation for the efficient exploration of possible outcomes required for scenario planning.</t>
+  </si>
+  <si>
+    <t>Best Systems Demonstration Award (ICAPS 2017)</t>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~shirin/Sohrabi-AAAI-18.pdf</t>
+  </si>
+  <si>
+    <t>Multi-Agent Path Finding with Kinematic Constraints</t>
+  </si>
+  <si>
+    <t>W. Hoenig, S. Kumar, L. Cohen, H. Ma, H. Xu, N. Ayanian and S. Koenig</t>
+  </si>
+  <si>
+    <t>We introduce MAPF-POST, a novel approach that makes use of a simple 
+temporal network to postprocess the output of a Multi-Agent Path Finding 
+solver in polynomial time to create a plan-execution schedule that can 
+be executed on robots. This schedule works on non-holonomic robots, 
+takes their maximum translational and rotational velocities into 
+account,  provides a guaranteed safety distance between them, and 
+exploits slack to absorb imperfect plan executions and avoid 
+time-intensive replanning in many cases. We evaluate MAPF-POST in 
+simulation and on differential-drive robots, showcasing the practicality 
+of our approach.</t>
+  </si>
+  <si>
+    <t>Best Paper in Robotics Track (ICAPS 2016)</t>
+  </si>
+  <si>
+    <t>https://www.aaai.org/ocs/index.php/ICAPS/ICAPS16/paper/view/13183/12711</t>
+  </si>
+  <si>
+    <t>AI-MIX: Using Automated Planning to Steer Human Workers Towards Better Crowdsourced Plans</t>
+  </si>
+  <si>
+    <t>Lydia Manikonda, Tathagata Chakraborti, Sushovan De, Kartik Talamadupula and Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>One subclass of human computation applications are those directed at tasks that involve planning and scheduling.
+Straightforward adaptation of current planning technology in these settings requires 
+(i) interpreting inputs of the human workers (and the requester) and 
+(ii) steering or critiquing plans produced by the human workers, armed only with incomplete domain and preference models. 
+To these ends, we demonstrate AI-MIX, a tour plan generation system that uses automated checks and alerts to improve the quality of plans created by human workers.</t>
+  </si>
+  <si>
+    <t>Best Systems Demonstration Award (ICAPS 2014)</t>
+  </si>
+  <si>
+    <t>http://hcjournal.org/ojs/index.php?journal=jhc&amp;page=article&amp;op=view&amp;path%5B%5D=10.15346%2Fhc.v4i1.2</t>
+  </si>
+  <si>
+    <t>Oren Salzman, Brian Hou and Siddhartha Srinivasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We consider the problem of planning a collision-free path of a robot in the presence of risk zones. 
+The robot is allowed to travel in these zones but is penalized in a super-linear fashion for consecutive accumulative time spent there. 
+We suggest a natural cost function that balances path length and risk-exposure time.
+Interestingly, paths defined using our cost function do not have an optimal substructure.
+Thus, standard graph-search algorithms such as Dijkstra cannot be used. 
+We present a path-finding algorithm, which can be seen as a natural generalization of Dijkstra's algorithm.
+The snapshot illustrates a disabled user moving a bottle using a robotic arm in the presence of obstacles. 
+The trajectory (left = Shortest path, right = Minimal-cost path) of the arm moves between “safe” and “risk” regions where the bottle is visible (colored green) and non-visible (colored red) to the user, respectively. </t>
+  </si>
+  <si>
+    <t>Best Paper in Robotics Track (ICAPS 2017)</t>
+  </si>
+  <si>
+    <t>Efficient Motion Planning for Problems Lacking Optimal Substructure</t>
+  </si>
+  <si>
+    <t>https://aaai.org/ocs/index.php/ICAPS/ICAPS17/paper/view/15617</t>
+  </si>
+  <si>
+    <t>Visualizations for an Explainable Agent for Collaborative Planning in a Smart Environment</t>
+  </si>
+  <si>
+    <t>Tathagata Chakraborti, Kshitij P. Fadnis, Kartik Talamadupula, Mishal Dholakia, Biplav Srivastava, Jeffrey O. Kephart and Rachel K. E. Bellamy</t>
+  </si>
+  <si>
+    <t>In this work, we domonstrate the visualization capabilities of an Explainable AI Planning (XAIP) agent that can support human in the loop decision making. 
+Imposing transparency and explainability requirements on such agents is especially important in order to establish trust and common ground with the end-to-end automated planning system. 
+Visualizing the agent's internal decision-making processes is a crucial step towards achieving this. 
+This may include externalizing the "brain" of the agent -- starting from its sensory inputs, to progressively higher order decisions made by it in order to drive its planning components. 
+We demonstrate these functionalities in the context of the automated planning components of a smart assistant in an instrumented meeting space CEL (i.e. the Cognitive Environments Laboratory) at IBM T.J. Watson Research Center.</t>
+  </si>
+  <si>
+    <t>Best Systems Demonstration Award Runner-up (ICAPS 2018)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1709.04517</t>
+  </si>
+  <si>
+    <t>oddi</t>
+  </si>
+  <si>
+    <t>petrick</t>
+  </si>
+  <si>
+    <t>nir</t>
+  </si>
+  <si>
+    <t>muise</t>
+  </si>
+  <si>
+    <t>shirin</t>
+  </si>
+  <si>
+    <t>wolfgang</t>
+  </si>
+  <si>
+    <t>aimix</t>
+  </si>
+  <si>
+    <t>sidd</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Best Paper of the Special Track on Novel Applications (ICAPS 2013)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +291,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,42 +585,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.265625" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{2EC7D9DD-663B-4801-860E-C30C3AFE1AC3}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1F4BFC0B-29EA-455C-B342-671F1801B96B}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{941AFC2A-3037-4343-A90C-3687656B64F6}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{0C53371C-1542-47B8-8D62-04768F1C1D9E}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{2A0AE6E4-E29F-48D9-863E-04289D662D66}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{A30D5C9D-71A4-46BA-9068-0238955DA6CA}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{A6543A23-C272-4B24-B23F-574A18590A5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
 </worksheet>
 </file>
--- a/pagegen/data.xlsx
+++ b/pagegen/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3EC5E8-B3F0-46F6-A31E-67F67EA1CA99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB3924-073D-4CC5-ABB7-80992320ABA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Title</t>
   </si>
@@ -251,6 +251,27 @@
   </si>
   <si>
     <t>Best Paper of the Special Track on Novel Applications (ICAPS 2013)</t>
+  </si>
+  <si>
+    <t>Projection-Aware Planning</t>
+  </si>
+  <si>
+    <t>Projection-Aware Task Planning and Execution for Human-in-the-Loop Operation of Robots in a Mixed-Reality Workspace</t>
+  </si>
+  <si>
+    <t>Tathagata Chakraborti, Sarath Sreedharan, Anagha Kulkarni and Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>Recent advances in mixed-reality technologies have renewed interest in alternative modes of communication for human-robot interaction. However, most of the work in this direction has been confined to tasks such as teleoperation, simulation or explication of individual actions of a robot. In this paper, we will discuss how the capability to project intentions affect the task planning capabilities of a robot. Specifically, we will start with a discussion on how projection actions can be used to reveal information regarding the future intentions of the robot at the time of task execution. We will then pose a new planning paradigm – projection-aware planning – whereby a robot can trade off its plan cost with its ability to reveal its intentions using its projection actions. We demonstrate each of these scenarios with the help of a joint human-robot activity using the HoloLens.</t>
+  </si>
+  <si>
+    <t>U.S. Finals, Microsoft Imagine Cup 2017 (ICAPS Demo Track 2017)</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>http://ae-robots.com/,https://yochan-lab.github.io/papers/files/papers/projection-aware.pdf</t>
   </si>
 </sst>
 </file>
@@ -585,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,6 +618,7 @@
     <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="20.06640625" customWidth="1"/>
     <col min="4" max="4" width="18.46484375" customWidth="1"/>
+    <col min="6" max="6" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -670,176 +692,200 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{2EC7D9DD-663B-4801-860E-C30C3AFE1AC3}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{2EC7D9DD-663B-4801-860E-C30C3AFE1AC3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{1F4BFC0B-29EA-455C-B342-671F1801B96B}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{941AFC2A-3037-4343-A90C-3687656B64F6}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{0C53371C-1542-47B8-8D62-04768F1C1D9E}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{2A0AE6E4-E29F-48D9-863E-04289D662D66}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{A30D5C9D-71A4-46BA-9068-0238955DA6CA}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{A6543A23-C272-4B24-B23F-574A18590A5F}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{0C53371C-1542-47B8-8D62-04768F1C1D9E}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{2A0AE6E4-E29F-48D9-863E-04289D662D66}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{A30D5C9D-71A4-46BA-9068-0238955DA6CA}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{A6543A23-C272-4B24-B23F-574A18590A5F}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{617F927E-1CCB-4BEB-9DF3-DEF58DB1FEA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
 </worksheet>
 </file>
--- a/pagegen/data.xlsx
+++ b/pagegen/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB3924-073D-4CC5-ABB7-80992320ABA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92C4762E-8D38-4F00-A91C-3A14E42B8D5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Best Systems Demonstration Award (ICAPS 2016)</t>
   </si>
   <si>
-    <t>Commonly used resources for the field of automated planning, such as benchmarks, problem generators, etc., are widespread over the internet. With planning.domains, we aim to (a) collect these resources in a central location; and (b) enable creative possibilities through a consistent interface to the larger planning community. In this demo, we focus on the three main pillars of planning.domains: (1) api.planning.domains – a programmatic interface to all existing planning problems; (2) solver.planning.domains – an open (and extendable) interface to planning-in-the-cloud; and (3) editor.planning.domains - a fully featured editor for planning domains.</t>
-  </si>
-  <si>
     <t>Scenario Planning for Enterprise Risk Management</t>
   </si>
   <si>
@@ -182,6 +179,91 @@
     <t>Oren Salzman, Brian Hou and Siddhartha Srinivasa</t>
   </si>
   <si>
+    <t>Best Paper in Robotics Track (ICAPS 2017)</t>
+  </si>
+  <si>
+    <t>Efficient Motion Planning for Problems Lacking Optimal Substructure</t>
+  </si>
+  <si>
+    <t>https://aaai.org/ocs/index.php/ICAPS/ICAPS17/paper/view/15617</t>
+  </si>
+  <si>
+    <t>Visualizations for an Explainable Agent for Collaborative Planning in a Smart Environment</t>
+  </si>
+  <si>
+    <t>Tathagata Chakraborti, Kshitij P. Fadnis, Kartik Talamadupula, Mishal Dholakia, Biplav Srivastava, Jeffrey O. Kephart and Rachel K. E. Bellamy</t>
+  </si>
+  <si>
+    <t>In this work, we domonstrate the visualization capabilities of an Explainable AI Planning (XAIP) agent that can support human in the loop decision making. 
+Imposing transparency and explainability requirements on such agents is especially important in order to establish trust and common ground with the end-to-end automated planning system. 
+Visualizing the agent's internal decision-making processes is a crucial step towards achieving this. 
+This may include externalizing the "brain" of the agent -- starting from its sensory inputs, to progressively higher order decisions made by it in order to drive its planning components. 
+We demonstrate these functionalities in the context of the automated planning components of a smart assistant in an instrumented meeting space CEL (i.e. the Cognitive Environments Laboratory) at IBM T.J. Watson Research Center.</t>
+  </si>
+  <si>
+    <t>Best Systems Demonstration Award Runner-up (ICAPS 2018)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1709.04517</t>
+  </si>
+  <si>
+    <t>oddi</t>
+  </si>
+  <si>
+    <t>petrick</t>
+  </si>
+  <si>
+    <t>nir</t>
+  </si>
+  <si>
+    <t>muise</t>
+  </si>
+  <si>
+    <t>shirin</t>
+  </si>
+  <si>
+    <t>wolfgang</t>
+  </si>
+  <si>
+    <t>aimix</t>
+  </si>
+  <si>
+    <t>sidd</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Best Paper of the Special Track on Novel Applications (ICAPS 2013)</t>
+  </si>
+  <si>
+    <t>Projection-Aware Planning</t>
+  </si>
+  <si>
+    <t>Projection-Aware Task Planning and Execution for Human-in-the-Loop Operation of Robots in a Mixed-Reality Workspace</t>
+  </si>
+  <si>
+    <t>Tathagata Chakraborti, Sarath Sreedharan, Anagha Kulkarni and Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>U.S. Finals, Microsoft Imagine Cup 2017 (ICAPS Demo Track 2017)</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>http://ae-robots.com/,https://yochan-lab.github.io/papers/files/papers/projection-aware.pdf</t>
+  </si>
+  <si>
+    <t>Recent advances in mixed-reality technologies have renewed interest in alternative modes of communication for human-robot interaction. However, most of the work in this direction has been confined to tasks such as teleoperation, simulation or explication of individual actions of a robot. In this paper, we will discuss how the capability to project intentions affect the task planning capabilities of a robot. Specifically, we will start with a discussion on how projection actions can be used to reveal information regarding the future intentions of the robot at the time of task execution. We will then pose a new planning paradigm -- projection-aware planning -- whereby a robot can trade off its plan cost with its ability to reveal its intentions using its projection actions. We demonstrate each of these scenarios with the help of a joint human-robot activity using the HoloLens.</t>
+  </si>
+  <si>
+    <t>Commonly used resources for the field of automated planning, such as benchmarks, problem generators, etc., are widespread over the internet. With planning.domains, we aim to (a) collect these resources in a central location; and (b) enable creative possibilities through a consistent interface to the larger planning community. In this demo, we focus on the three main pillars of planning.domains: (1) api.planning.domains -- a programmatic interface to all existing planning problems; (2) solver.planning.domains -- an open (and extendable) interface to planning-in-the-cloud; and (3) editor.planning.domains - a fully featured editor for planning domains.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We consider the problem of planning a collision-free path of a robot in the presence of risk zones. 
 The robot is allowed to travel in these zones but is penalized in a super-linear fashion for consecutive accumulative time spent there. 
 We suggest a natural cost function that balances path length and risk-exposure time.
@@ -189,89 +271,7 @@
 Thus, standard graph-search algorithms such as Dijkstra cannot be used. 
 We present a path-finding algorithm, which can be seen as a natural generalization of Dijkstra's algorithm.
 The snapshot illustrates a disabled user moving a bottle using a robotic arm in the presence of obstacles. 
-The trajectory (left = Shortest path, right = Minimal-cost path) of the arm moves between “safe” and “risk” regions where the bottle is visible (colored green) and non-visible (colored red) to the user, respectively. </t>
-  </si>
-  <si>
-    <t>Best Paper in Robotics Track (ICAPS 2017)</t>
-  </si>
-  <si>
-    <t>Efficient Motion Planning for Problems Lacking Optimal Substructure</t>
-  </si>
-  <si>
-    <t>https://aaai.org/ocs/index.php/ICAPS/ICAPS17/paper/view/15617</t>
-  </si>
-  <si>
-    <t>Visualizations for an Explainable Agent for Collaborative Planning in a Smart Environment</t>
-  </si>
-  <si>
-    <t>Tathagata Chakraborti, Kshitij P. Fadnis, Kartik Talamadupula, Mishal Dholakia, Biplav Srivastava, Jeffrey O. Kephart and Rachel K. E. Bellamy</t>
-  </si>
-  <si>
-    <t>In this work, we domonstrate the visualization capabilities of an Explainable AI Planning (XAIP) agent that can support human in the loop decision making. 
-Imposing transparency and explainability requirements on such agents is especially important in order to establish trust and common ground with the end-to-end automated planning system. 
-Visualizing the agent's internal decision-making processes is a crucial step towards achieving this. 
-This may include externalizing the "brain" of the agent -- starting from its sensory inputs, to progressively higher order decisions made by it in order to drive its planning components. 
-We demonstrate these functionalities in the context of the automated planning components of a smart assistant in an instrumented meeting space CEL (i.e. the Cognitive Environments Laboratory) at IBM T.J. Watson Research Center.</t>
-  </si>
-  <si>
-    <t>Best Systems Demonstration Award Runner-up (ICAPS 2018)</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/1709.04517</t>
-  </si>
-  <si>
-    <t>oddi</t>
-  </si>
-  <si>
-    <t>petrick</t>
-  </si>
-  <si>
-    <t>nir</t>
-  </si>
-  <si>
-    <t>muise</t>
-  </si>
-  <si>
-    <t>shirin</t>
-  </si>
-  <si>
-    <t>wolfgang</t>
-  </si>
-  <si>
-    <t>aimix</t>
-  </si>
-  <si>
-    <t>sidd</t>
-  </si>
-  <si>
-    <t>jones</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Best Paper of the Special Track on Novel Applications (ICAPS 2013)</t>
-  </si>
-  <si>
-    <t>Projection-Aware Planning</t>
-  </si>
-  <si>
-    <t>Projection-Aware Task Planning and Execution for Human-in-the-Loop Operation of Robots in a Mixed-Reality Workspace</t>
-  </si>
-  <si>
-    <t>Tathagata Chakraborti, Sarath Sreedharan, Anagha Kulkarni and Subbarao Kambhampati</t>
-  </si>
-  <si>
-    <t>Recent advances in mixed-reality technologies have renewed interest in alternative modes of communication for human-robot interaction. However, most of the work in this direction has been confined to tasks such as teleoperation, simulation or explication of individual actions of a robot. In this paper, we will discuss how the capability to project intentions affect the task planning capabilities of a robot. Specifically, we will start with a discussion on how projection actions can be used to reveal information regarding the future intentions of the robot at the time of task execution. We will then pose a new planning paradigm – projection-aware planning – whereby a robot can trade off its plan cost with its ability to reveal its intentions using its projection actions. We demonstrate each of these scenarios with the help of a joint human-robot activity using the HoloLens.</t>
-  </si>
-  <si>
-    <t>U.S. Finals, Microsoft Imagine Cup 2017 (ICAPS Demo Track 2017)</t>
-  </si>
-  <si>
-    <t>imagine</t>
-  </si>
-  <si>
-    <t>http://ae-robots.com/,https://yochan-lab.github.io/papers/files/papers/projection-aware.pdf</t>
+The trajectory (left = Shortest path, right = Minimal-cost path) of the arm moves between "safe" and "risk" regions where the bottle is visible (colored green) and non-visible (colored red) to the user, respectively. </t>
   </si>
 </sst>
 </file>
@@ -319,12 +319,14 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,17 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.06640625" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" customWidth="1"/>
-    <col min="6" max="6" width="68" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="68" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -638,13 +642,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,14 +664,14 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,39 +685,39 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -729,14 +733,14 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,131 +751,131 @@
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/data.xlsx
+++ b/pagegen/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92C4762E-8D38-4F00-A91C-3A14E42B8D5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD01671-E3FC-459E-AA05-4835EB5F0D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Title</t>
   </si>
@@ -272,6 +272,48 @@
 We present a path-finding algorithm, which can be seen as a natural generalization of Dijkstra's algorithm.
 The snapshot illustrates a disabled user moving a bottle using a robotic arm in the presence of obstacles. 
 The trajectory (left = Shortest path, right = Minimal-cost path) of the arm moves between "safe" and "risk" regions where the bottle is visible (colored green) and non-visible (colored red) to the user, respectively. </t>
+  </si>
+  <si>
+    <t>Optimizing Parameters for Uncertain Execution and Rescheduling Robustness</t>
+  </si>
+  <si>
+    <t>Timeline-based Space Operations Scheduling with External Constraints</t>
+  </si>
+  <si>
+    <t>A critical element of a planning and scheduling system for a planetary rover is its ability to remain robust to execution uncertainty for long periods of time without human intervention. We search in the activity input parameter space using Monte Carlo simulations to determine the order in which activities are considered for placement in the schedule by a one shot non-backtracking scheduler. Our approach can be viewed as using simulation feedback to determine problem specific heuristics e.g. Squeaky Wheel Optimization. These techniques are currently baselined for use in the ground operations of NASA's next planetary rover, the Mars 2020 rover.</t>
+  </si>
+  <si>
+    <t>Best Applied Research Paper (ICAPS 2010)</t>
+  </si>
+  <si>
+    <t>jpl1</t>
+  </si>
+  <si>
+    <t>Nominated from ICAPS 2019 Novel Applications Track</t>
+  </si>
+  <si>
+    <t>Wayne Chi, Jagriti Agrawal, Steve Chien, Elyse Fosse, Usha Guduri</t>
+  </si>
+  <si>
+    <t>Steve Chien, Daniel Tran, Gregg Rabideau, Steve Schaffer, Daniel Mandl, Stuart Frye</t>
+  </si>
+  <si>
+    <t>Since the dawn of the space age, unmanned spacecraft have flown blind with little or no ability to make autonomous decisions based on the content of the data they collect. The Autonomous Sciencecraft Experiment (ASE) operated onboard the Earth Observing-1 mission for over a dozen years, took over 60000 images, and enabled an over $1M per year operations costs reduction. The ASE software uses onboard continuous planning, robust task and goal-based execution, and onboard machine learning and pattern recognition to radically increase science return by enabling intelligent downlink selection and autonomous retargeting.</t>
+  </si>
+  <si>
+    <t>https://ai.jpl.nasa.gov/public/papers/chien_icaps2010_timeline.pdf,https://ai.jpl.nasa.gov/public/projects/ase/</t>
+  </si>
+  <si>
+    <t>jpl2</t>
+  </si>
+  <si>
+    <t>Mars 2020</t>
+  </si>
+  <si>
+    <t>Autonomous Sciencecraft Experiment</t>
+  </si>
+  <si>
+    <t>https://ai.jpl.nasa.gov/public/papers/chi_icaps2019_optimizing.pdf,https://ai.jpl.nasa.gov/public/</t>
   </si>
 </sst>
 </file>
@@ -608,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -811,71 +853,117 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -884,12 +972,14 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{1F4BFC0B-29EA-455C-B342-671F1801B96B}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{941AFC2A-3037-4343-A90C-3687656B64F6}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{0C53371C-1542-47B8-8D62-04768F1C1D9E}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{2A0AE6E4-E29F-48D9-863E-04289D662D66}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{A30D5C9D-71A4-46BA-9068-0238955DA6CA}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{A6543A23-C272-4B24-B23F-574A18590A5F}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{2A0AE6E4-E29F-48D9-863E-04289D662D66}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{A30D5C9D-71A4-46BA-9068-0238955DA6CA}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{A6543A23-C272-4B24-B23F-574A18590A5F}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{617F927E-1CCB-4BEB-9DF3-DEF58DB1FEA9}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{73175369-F971-4B75-BDC3-5BFA8CBD55D4}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{AA861746-740E-42E5-8B77-2B3BFDAD06A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
 </worksheet>
 </file>